--- a/Task/Проверки 1.2 в.4.xlsx
+++ b/Task/Проверки 1.2 в.4.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="156">
   <si>
     <t>Графа</t>
   </si>
@@ -820,7 +820,223 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Из возможных значений. </t>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать вид документа в соответствии с таблицей 3 приложения № 2 к приказу Госкорпорации "Росатом" от 07.12.2020 № 1/13-НПА</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Графа не может быть пустой</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Для выбранного кода операции указывается код ОКПО отчитывающейся организации</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>цифры и нижнее подчеркивание (длина 8 или 14 символов),</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Укажите код ОКПО контрагента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО организации, осуществившей продление НСС»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При выбранном коде операции траспортирование не производится</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование и адрес организации-изготовителя ИОУ»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 3, 4 в графе 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
+  </si>
+  <si>
+    <t>Если для проведения проверки будет в каком-то виде формироваться СНК, то можно предложить пользователю сохранить получившийся СНК в файле. Иначе будет затруднительно понять, в чем именно несовпадение.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21, 22, 25, 27, 28, 29,41, 42, </t>
     </r>
     <r>
       <rPr>
@@ -831,542 +1047,329 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 46, 53, 54</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 62, 65, 66, 67, 68, 71, 72, 81, 82, 83, 84, 88, 98</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"Активность изделий из обедненного урана не может снизится за время эксплуатации до значений ниже уровня отнесения к объектам учета". </t>
+  </si>
+  <si>
+    <t>Из возможных значений, для остальных операций</t>
+  </si>
+  <si>
+    <t>«В графе 16 необходимо указать код ОКПО отчитывающейся организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 16 необходимо указать ОКПО подрядной организации. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если зарядка/разрядка осуществлялась силами отчитывающейся  организации, следует использовать код операции 53»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <r>
+      <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9, 54, 66</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 46, 53, 58, 61, 62, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 67, 68, 71, 72, 72, 73, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">76, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>97, 98, 99</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Минобороны, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 21, 25, 27, 28, 29, 31, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Минобороны, -</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Не пустое поле. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Не пустое поле.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <t>Операцию 43 отмечать при проверках как ошибочную с сообщением: р</t>
+  </si>
+  <si>
+    <t>Не пустое поле и не 0.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Из возможных значений. При виде 19 требуется примечение. При коде операции 10 должно быть 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>При коде операции 11 должено быть 9.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать вид документа в соответствии с таблицей 3 приложения № 2 к приказу Госкорпорации "Росатом" от 07.12.2020 № 1/13-НПА</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Графа не может быть пустой</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Для выбранного кода операции указывается код ОКПО отчитывающейся организации</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>цифры и нижнее подчеркивание (длина 8 или 14 символов),</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Укажите код ОКПО контрагента</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Для выбранного кода операции указывается код ОКПО организации, осуществившей продление НСС»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>При выбранном коде операции траспортирование не производится</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать код ОКПО организации перевозчика</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование и адрес организации-изготовителя ИОУ»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 2, 3, 4 в графе 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
-  </si>
-  <si>
-    <t>Если для проведения проверки будет в каком-то виде формироваться СНК, то можно предложить пользователю сохранить получившийся СНК в файле. Иначе будет затруднительно понять, в чем именно несовпадение.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21, 22, 25, 27, 28, 29,41, 42, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 46, 53, 54</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 61</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 62, 65, 66, 67, 68, 71, 72, 81, 82, 83, 84, 88, 98</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Операцию 43 отмечать при проверках как ошибочную с сообщением: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Активность изделий из обедненного урана не может снизится за время эксплуатации до значений ниже уровня отнесения к объектам учета". </t>
-  </si>
-  <si>
-    <t>Из возможных значений, для остальных операций</t>
-  </si>
-  <si>
-    <t>«В графе 16 необходимо указать код ОКПО отчитывающейся организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе 16 необходимо указать ОКПО подрядной организации. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В случае, если зарядка/разрядка осуществлялась силами отчитывающейся  организации, следует использовать код операции 53»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
-  </si>
-  <si>
-    <r>
-      <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9, 54, 66</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 46, 53, 58, 61, 62, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 67, 68, 71, 72, 72, 73, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>74</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 75, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">76, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>97, 98, 99</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Минобороны, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 21, 25, 27, 28, 29, 31, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Минобороны, -</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Не пустое поле. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Не пустое поле.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
     </r>
   </si>
 </sst>
@@ -1374,20 +1377,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1568,12 +1563,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1582,10 +1577,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,28 +1589,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1929,8 +1921,8 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,8 +1982,8 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>136</v>
+      <c r="G2" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2005,12 +1997,12 @@
       <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>93</v>
@@ -2018,25 +2010,25 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="16">
         <v>43</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" s="8"/>
+      <c r="F4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -2060,7 +2052,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2097,7 +2089,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>82</v>
@@ -2151,25 +2143,25 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:9" s="8" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10">
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
         <v>53</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="8"/>
+      <c r="G10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2189,7 +2181,7 @@
         <v>87</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -2259,25 +2251,25 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -2440,7 +2432,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>116</v>
@@ -2448,26 +2440,26 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -2531,7 +2523,7 @@
         <v>13</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -2598,70 +2590,70 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>11</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <v>2</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31" s="11"/>
+      <c r="G31" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>11</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <v>3</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H32" s="11"/>
+      <c r="G32" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>11</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <v>9</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -2675,7 +2667,7 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>45</v>
@@ -2730,23 +2722,23 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>12</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14">
+      <c r="C37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13">
         <v>9</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="13" t="s">
         <v>122</v>
       </c>
       <c r="H37" s="3"/>
@@ -2766,10 +2758,10 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -2789,7 +2781,7 @@
         <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -2871,39 +2863,39 @@
         <v>61</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>16</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>16</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" s="12" t="s">
+      <c r="E44" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
@@ -2916,7 +2908,7 @@
         <v>31</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>63</v>
@@ -2925,33 +2917,33 @@
         <v>64</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>16</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="7">
+        <v>66</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>16</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="8">
-        <v>66</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
@@ -2964,7 +2956,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>65</v>
@@ -2973,7 +2965,7 @@
         <v>66</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -2987,8 +2979,8 @@
       <c r="C48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>150</v>
+      <c r="D48" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>67</v>
@@ -3002,28 +2994,28 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="A49" s="13">
         <v>16</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="14" t="s">
+      <c r="C49" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3047,7 +3039,7 @@
         <v>8</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -3064,16 +3056,16 @@
         <v>31</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -3099,7 +3091,7 @@
         <v>66</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -3118,10 +3110,10 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -3140,10 +3132,10 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
@@ -3162,10 +3154,10 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
